--- a/test/files/multiple_file_language_option_conversion/BFR5-Reinterview-Questionnaire-v13-jef.xlsx
+++ b/test/files/multiple_file_language_option_conversion/BFR5-Reinterview-Questionnaire-v13-jef.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="735">
   <si>
     <t>type</t>
   </si>
@@ -2127,6 +2127,150 @@
   </si>
   <si>
     <t>RQ-bfr5-v13</t>
+  </si>
+  <si>
+    <t>level1_list</t>
+  </si>
+  <si>
+    <t>location_1a</t>
+  </si>
+  <si>
+    <t>Location 1a</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1a</t>
+  </si>
+  <si>
+    <t>location_1b</t>
+  </si>
+  <si>
+    <t>Location 1b</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1b</t>
+  </si>
+  <si>
+    <t>location_1c</t>
+  </si>
+  <si>
+    <t>Location 1c</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1c</t>
+  </si>
+  <si>
+    <t>location_1d</t>
+  </si>
+  <si>
+    <t>Location 1d</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1d</t>
+  </si>
+  <si>
+    <t>location_1e</t>
+  </si>
+  <si>
+    <t>Location 1e</t>
+  </si>
+  <si>
+    <t>GEOGRAPHIQUE 1e</t>
+  </si>
+  <si>
+    <t>level2_list</t>
+  </si>
+  <si>
+    <t>location_2a</t>
+  </si>
+  <si>
+    <t>location_2b</t>
+  </si>
+  <si>
+    <t>location_2c</t>
+  </si>
+  <si>
+    <t>location_2d</t>
+  </si>
+  <si>
+    <t>location_2e</t>
+  </si>
+  <si>
+    <t>level3_list</t>
+  </si>
+  <si>
+    <t>location_3a</t>
+  </si>
+  <si>
+    <t>location_3b</t>
+  </si>
+  <si>
+    <t>location_3c</t>
+  </si>
+  <si>
+    <t>location_3d</t>
+  </si>
+  <si>
+    <t>location_3e</t>
+  </si>
+  <si>
+    <t>EA_list</t>
+  </si>
+  <si>
+    <t>EA_location_1</t>
+  </si>
+  <si>
+    <t>ZD</t>
+  </si>
+  <si>
+    <t>EA_location_2</t>
+  </si>
+  <si>
+    <t>EA_location_3</t>
+  </si>
+  <si>
+    <t>EA_location_4</t>
+  </si>
+  <si>
+    <t>EA_location_5</t>
+  </si>
+  <si>
+    <t>facility_1</t>
+  </si>
+  <si>
+    <t>&lt;Facility Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Nom de l'établissement&gt;</t>
+  </si>
+  <si>
+    <t>facility_1_other</t>
+  </si>
+  <si>
+    <t>facility_2</t>
+  </si>
+  <si>
+    <t>facility_2_other</t>
+  </si>
+  <si>
+    <t>facility_3</t>
+  </si>
+  <si>
+    <t>facility_3_other</t>
+  </si>
+  <si>
+    <t>facility_4</t>
+  </si>
+  <si>
+    <t>facility_4_other</t>
+  </si>
+  <si>
+    <t>facility_5</t>
+  </si>
+  <si>
+    <t>facility_5_other</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2296,6 +2440,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9ACEDF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2496,7 +2646,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="18"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2702,6 +2852,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="186">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -8033,10 +8185,10 @@
   <dimension ref="A1:E349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A191" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8050,43 +8202,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" customFormat="1" ht="14"/>
-    <row r="3" spans="1:5" customFormat="1" ht="14"/>
-    <row r="4" spans="1:5" customFormat="1" ht="14"/>
-    <row r="5" spans="1:5" customFormat="1" ht="14"/>
-    <row r="6" spans="1:5" customFormat="1" ht="14"/>
-    <row r="7" spans="1:5" customFormat="1" ht="14"/>
-    <row r="8" spans="1:5" customFormat="1" ht="14"/>
-    <row r="9" spans="1:5" customFormat="1" ht="14"/>
-    <row r="10" spans="1:5" customFormat="1" ht="14"/>
-    <row r="11" spans="1:5" customFormat="1" ht="14"/>
-    <row r="12" spans="1:5" customFormat="1" ht="14"/>
-    <row r="13" spans="1:5" customFormat="1" ht="14"/>
-    <row r="14" spans="1:5" customFormat="1" ht="14"/>
-    <row r="15" spans="1:5" customFormat="1" ht="14"/>
-    <row r="16" spans="1:5" customFormat="1" ht="14"/>
-    <row r="17" customFormat="1" ht="14"/>
-    <row r="18" customFormat="1" ht="14"/>
-    <row r="19" customFormat="1" ht="14"/>
-    <row r="20" customFormat="1" ht="14"/>
-    <row r="21" customFormat="1" ht="14"/>
-    <row r="22" customFormat="1" ht="14"/>
-    <row r="23" customFormat="1" ht="14"/>
-    <row r="24" customFormat="1" ht="14"/>
-    <row r="25" customFormat="1" ht="14"/>
-    <row r="26" customFormat="1" ht="14"/>
-    <row r="27" customFormat="1" ht="14"/>
-    <row r="28" customFormat="1" ht="14"/>
-    <row r="29" customFormat="1" ht="14"/>
-    <row r="30" customFormat="1" ht="14"/>
-    <row r="31" customFormat="1" ht="14"/>
-    <row r="32" customFormat="1" ht="14"/>
+      <c r="A1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1">
+      <c r="A2" s="74" t="s">
+        <v>687</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>688</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>690</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1">
+      <c r="A3" s="74" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>690</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customFormat="1">
+      <c r="A4" s="74" t="s">
+        <v>687</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>695</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>690</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" customFormat="1">
+      <c r="A5" s="74" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>698</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>690</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customFormat="1">
+      <c r="A6" s="74" t="s">
+        <v>687</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>701</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>702</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>690</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1">
+      <c r="A7" s="74" t="s">
+        <v>704</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>705</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>688</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1">
+      <c r="A8" s="74" t="s">
+        <v>704</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>706</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>693</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>692</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1">
+      <c r="A9" s="74" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>707</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>695</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="1">
+      <c r="A10" s="74" t="s">
+        <v>704</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>708</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>699</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>698</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1">
+      <c r="A11" s="74" t="s">
+        <v>704</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>709</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>702</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>701</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1">
+      <c r="A12" s="74" t="s">
+        <v>710</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>711</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>689</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>705</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1">
+      <c r="A13" s="74" t="s">
+        <v>710</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>712</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>693</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>706</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" customFormat="1">
+      <c r="A14" s="74" t="s">
+        <v>710</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>713</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>696</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>707</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" customFormat="1">
+      <c r="A15" s="74" t="s">
+        <v>710</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>714</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>699</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>708</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1">
+      <c r="A16" s="74" t="s">
+        <v>710</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>715</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>702</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>709</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" customFormat="1">
+      <c r="A17" s="74" t="s">
+        <v>716</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>717</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>711</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" customFormat="1">
+      <c r="A18" s="74" t="s">
+        <v>716</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>719</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>712</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" customFormat="1">
+      <c r="A19" s="74" t="s">
+        <v>716</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>720</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>713</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customFormat="1">
+      <c r="A20" s="74" t="s">
+        <v>716</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>721</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>714</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" customFormat="1">
+      <c r="A21" s="74" t="s">
+        <v>716</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>722</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>715</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" customFormat="1" ht="14">
+      <c r="A22" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>723</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>724</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>717</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" ht="14">
+      <c r="A23" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>726</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>717</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" ht="14">
+      <c r="A24" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>727</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>724</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>719</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" customFormat="1" ht="14">
+      <c r="A25" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>728</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>719</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" customFormat="1" ht="14">
+      <c r="A26" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>729</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>724</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>720</v>
+      </c>
+      <c r="E26" s="74" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" customFormat="1" ht="14">
+      <c r="A27" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>730</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>720</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" customFormat="1" ht="14">
+      <c r="A28" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>731</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>724</v>
+      </c>
+      <c r="D28" s="74" t="s">
+        <v>721</v>
+      </c>
+      <c r="E28" s="74" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" customFormat="1" ht="14">
+      <c r="A29" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>732</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>721</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" customFormat="1" ht="14">
+      <c r="A30" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>733</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>724</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>722</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" customFormat="1" ht="14">
+      <c r="A31" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" s="74" t="s">
+        <v>734</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>722</v>
+      </c>
+      <c r="E31" s="74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" customFormat="1" ht="14"/>
     <row r="33" customFormat="1" ht="14"/>
     <row r="34" customFormat="1" ht="14"/>
     <row r="35" customFormat="1" ht="14"/>
